--- a/Employee_Reports35/Jose Isagani Jr. Jamero Alaan Q0459.xlsx
+++ b/Employee_Reports35/Jose Isagani Jr. Jamero Alaan Q0459.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -903,11 +903,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -952,11 +952,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -989,11 +989,11 @@
         </is>
       </c>
       <c r="H12" s="4" t="n">
-        <v>-98</v>
+        <v>-99</v>
       </c>
       <c r="I12" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="4" t="inlineStr">
@@ -1026,11 +1026,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">

--- a/Employee_Reports35/Jose Isagani Jr. Jamero Alaan Q0459.xlsx
+++ b/Employee_Reports35/Jose Isagani Jr. Jamero Alaan Q0459.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -903,11 +903,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -952,11 +952,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -989,11 +989,11 @@
         </is>
       </c>
       <c r="H12" s="4" t="n">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="I12" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="4" t="inlineStr">
@@ -1026,11 +1026,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
